--- a/Testcases_supplier/Orders/Manual testcases/List of orders testcases.xlsx
+++ b/Testcases_supplier/Orders/Manual testcases/List of orders testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A074906-68CA-4AEE-B353-F88CD0979937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B5FF7F-D84B-439B-A962-4EA1AD2A16A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>SL. No</t>
   </si>
@@ -66,20 +66,334 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>List of Orders-&gt;Placed</t>
-  </si>
-  <si>
-    <t>If click the e-Invoice it will shows the Create invoice page</t>
-  </si>
-  <si>
-    <t>It displayed Create invoice page</t>
+    <t>If click the Create e-Invoice it will shows the Create invoice page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed Create invoice page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Delivery to, Bill to, Invoice number, Order number, Invoice date, Payment terms, Sales person, Description, Qty, Unit size, Unit price, Discount, Amount($), Add SKU, Add free SKU, Optional- Add notes, Download as DO, Save as draft and Save and Issue"</t>
+    </r>
+  </si>
+  <si>
+    <t>List of Orders-&gt;Placed Status(Grey color)</t>
+  </si>
+  <si>
+    <t>List of Orders-&gt;Placed Status-&gt;Actions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In dropdown are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Mark as Shipped"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In dropdown are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Mark as Partially Shipped"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Mark as partially shipped'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it displayed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>order as PARTIALLY SHIPPED and status green color</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Mark as shipped'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it displayed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>order as SHIPPED  and status green color</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In dropdown are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Void this order?" and click Void order</t>
+    </r>
+  </si>
+  <si>
+    <t>After delivery order we can void the order</t>
+  </si>
+  <si>
+    <t>Placed status -&gt;Acknowledge order</t>
+  </si>
+  <si>
+    <t>When we click the Acknowledge order ,it will display the pop up Acknowledge  this order?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If we click 'OK' then it displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Order Acknowledged successfully'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and In the Order number appears tick icon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It should have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Acknowledge order, Mark as Shipped, Mark as Partially Shipped and Void order"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed "Acknowledge order, Mark as Shipped, Mark as Partially Shipped and Void order"</t>
+  </si>
+  <si>
+    <t>List of Orders-&gt;Shipped Status(Green color)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the Shipped order,it shows details of order,right side Create e-Invoice and Options                                                                                      </t>
+  </si>
+  <si>
+    <t>Click Options -&gt;Download PDF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Invoice page'</t>
+    </r>
+  </si>
+  <si>
+    <t>List of Orders-&gt;PARTIALLY SHIPPED Status(Green color)</t>
+  </si>
+  <si>
+    <t>Options-&gt;"Download PDF, Download packing slip, Mark as Shipped"</t>
+  </si>
+  <si>
+    <t>"Download PDF, Download packing slip, Mark as Shipped"</t>
+  </si>
+  <si>
+    <t>Click Options -&gt;Download packing slip</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It displayed the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Invoice of packing page'</t>
+    </r>
+  </si>
+  <si>
+    <t>List of Orders-&gt;CANCELLED order Status(Red color)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details will be disabled and will show options </t>
+  </si>
+  <si>
+    <t>Disaplyed 'Void order'</t>
+  </si>
+  <si>
+    <t>Orders screen</t>
+  </si>
+  <si>
+    <t>View Orders screen</t>
+  </si>
+  <si>
+    <t>In the order page it shows Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Order number ,Delivery location,Order date range,Delivery date range, Search and Filter and Download"</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed</t>
+  </si>
+  <si>
+    <t>Click the Download button</t>
+  </si>
+  <si>
+    <t>It displayed pop up Delivery date and Outlet ,Once selected and click Download,downloaded successfully</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It will shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Download pick list"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, once click the Download pick list</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +402,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -147,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,6 +494,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +811,7 @@
     <col min="3" max="3" width="35.42578125" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" customWidth="1"/>
     <col min="5" max="5" width="53.140625" customWidth="1"/>
-    <col min="6" max="6" width="49" customWidth="1"/>
+    <col min="6" max="6" width="56.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,6 +842,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -490,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -502,7 +864,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -510,19 +875,342 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testcases_supplier/Orders/Manual testcases/List of orders testcases.xlsx
+++ b/Testcases_supplier/Orders/Manual testcases/List of orders testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B5FF7F-D84B-439B-A962-4EA1AD2A16A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA2809-35A0-4770-B1F0-6A9F2AABA9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Buyers Home page</t>
-  </si>
-  <si>
     <t>View all orders</t>
   </si>
   <si>
@@ -387,6 +384,9 @@
       </rPr>
       <t>, once click the Download pick list</t>
     </r>
+  </si>
+  <si>
+    <t>Supplier Home page</t>
   </si>
 </sst>
 </file>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,22 +846,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,22 +869,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,22 +892,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -915,22 +915,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,22 +938,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,22 +961,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,22 +984,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1007,22 +1007,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1030,22 +1030,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,22 +1053,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1076,22 +1076,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1099,22 +1099,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,22 +1122,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1145,22 +1145,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,22 +1168,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1191,22 +1191,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
